--- a/antife/rekomendacijos.xlsx
+++ b/antife/rekomendacijos.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pusryčiai" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Pietūs" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Vakarienė" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Papildomai" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Individualios_rek" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,13 +28,22 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -422,7 +433,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -483,7 +494,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -544,7 +555,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -601,6 +612,67 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Pavadinimas</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Kiekis</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MEVALIA CHOCOTINO šokoladas</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Grietinė 30 % rieb.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ananasai</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -608,45 +680,63 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Pavadinimas</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Kiekis</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Recommendation</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MEVALIA CHOCOTINO šokoladas</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
+          <t>Pusryčiai</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Receptas: MORKŲ BLYNELIAI</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Grietinė 30 % rieb.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
+          <t>pietus</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Receptas: SALDŽIŲJŲ BULVIŲ SKILTELĖS</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ananasai</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
+          <t>vakarienė</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Produktas: Avižiniai dribsniai</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>papildomai</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Receptas: KARŠTI IR RŪGŠTŪS BAKLAŽANAI</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/antife/rekomendacijos.xlsx
+++ b/antife/rekomendacijos.xlsx
@@ -699,7 +699,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Receptas: MORKŲ BLYNELIAI</t>
+          <t>Receptas: AVOKADŲ IR PESTO MAKARONŲ SALOTOS</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Receptas: SALDŽIŲJŲ BULVIŲ SKILTELĖS</t>
+          <t>Produktas: Baklažanai</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Produktas: Avižiniai dribsniai</t>
+          <t>Receptas: KREMINIAI GRYBŲ MAKARONAI</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Receptas: KARŠTI IR RŪGŠTŪS BAKLAŽANAI</t>
+          <t>Produktas: Rabarbarai</t>
         </is>
       </c>
     </row>

--- a/antife/rekomendacijos.xlsx
+++ b/antife/rekomendacijos.xlsx
@@ -699,7 +699,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Receptas: AVOKADŲ IR PESTO MAKARONŲ SALOTOS</t>
+          <t>Receptas: GRYBŲ RAVIOLIAI POMIDORŲ PADAŽE</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Produktas: Baklažanai</t>
+          <t>Receptas: GRYBŲ RIZOTAS</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Receptas: KREMINIAI GRYBŲ MAKARONAI</t>
+          <t>Receptas: MORKŲ IR PASTARNOKŲ APKEPAS</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Produktas: Rabarbarai</t>
+          <t>Receptas: KREMINIAI GRYBAI ANT SKREBUČIO</t>
         </is>
       </c>
     </row>

--- a/antife/rekomendacijos.xlsx
+++ b/antife/rekomendacijos.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pusryčiai" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="Individualios_rek" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -64,7 +65,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -433,7 +434,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -494,7 +495,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -515,7 +516,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -555,7 +556,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -612,11 +613,11 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -699,7 +700,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Receptas: GRYBŲ RAVIOLIAI POMIDORŲ PADAŽE</t>
+          <t>Receptas: KREMINIAI GRYBAI ANT SKREBUČIO</t>
         </is>
       </c>
     </row>
@@ -711,7 +712,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Receptas: GRYBŲ RIZOTAS</t>
+          <t>Receptas: KREMINIAI GRYBŲ MAKARONAI</t>
         </is>
       </c>
     </row>
@@ -723,7 +724,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Receptas: MORKŲ IR PASTARNOKŲ APKEPAS</t>
+          <t>Produktas: Žemuogės</t>
         </is>
       </c>
     </row>
@@ -735,7 +736,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Receptas: KREMINIAI GRYBAI ANT SKREBUČIO</t>
+          <t>Produktas: Apelsinų sultys</t>
         </is>
       </c>
     </row>
